--- a/ifqe-portal-backend5/templates/3.10.2_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.10.2_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Somya Prabhakar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\criteria 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9852C347-A273-4E43-A98C-FB7147493B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2D0322-784B-4770-A68E-D4E2E14075A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D540066C-D2B0-4B45-A03B-5C4D9320F33B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D540066C-D2B0-4B45-A03B-5C4D9320F33B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -94,17 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,6 +106,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,25 +249,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +583,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,110 +595,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="10" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="10" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="10" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A11" s="1"/>
@@ -712,6 +707,9 @@
       <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>